--- a/chude5_Excel/buoi8/bai4.xlsx
+++ b/chude5_Excel/buoi8/bai4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thực hành tin học cơ sở\Baitap_THTHCS THTH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA62D5-9246-4678-8541-C7EE72337461}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C50B0E-E25D-4390-A92E-7B645C37DEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,20 +16,30 @@
     <sheet name="LOOKUP_TuongDoi" sheetId="1" r:id="rId1"/>
     <sheet name="Câu hỏi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LOOKUP_TuongDoi!$A$2:$E$8</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">LOOKUP_TuongDoi!$I$2:$J$4</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">LOOKUP_TuongDoi!$I$11:$M$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
-  <si>
-    <t>?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Văn thư</t>
   </si>
@@ -55,21 +65,12 @@
     <t>15DT0</t>
   </si>
   <si>
-    <t>11VT0</t>
-  </si>
-  <si>
     <t>09HC1</t>
   </si>
   <si>
     <t>12VT1</t>
   </si>
   <si>
-    <t>10HC0</t>
-  </si>
-  <si>
-    <t>08DT1</t>
-  </si>
-  <si>
     <t>Giới tính</t>
   </si>
   <si>
@@ -110,13 +111,28 @@
   </si>
   <si>
     <t>6. Lọc ra danh sách các Nhân viên có giới tính là Nữ hoặc làm việc ở Phòng Đào tạo</t>
+  </si>
+  <si>
+    <t>06DT1</t>
+  </si>
+  <si>
+    <t>12HC0</t>
+  </si>
+  <si>
+    <t>12VT0</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Nam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +153,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -222,17 +250,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,7 +268,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,92 +566,161 @@
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>IF(MID(A3,3,2)="HC","Hành chính",IF(MID(A3,3,2)="DT","Đào tạo","Văn thư"))</f>
+        <v>Đào tạo</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>IF(VALUE(RIGHT(A3,1))=0,"Nữ","Nam")</f>
+        <v>Nam</v>
+      </c>
+      <c r="D3" s="5">
+        <f>VALUE(LEFT(A3,2))</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:B8" si="0">IF(MID(A4,3,2)="HC","Hành chính",IF(MID(A4,3,2)="DT","Đào tạo","Văn thư"))</f>
+        <v>Hành chính</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" ref="C4:C8" si="1">IF(VALUE(RIGHT(A4,1))=0,"Nữ","Nam")</f>
+        <v>Nữ</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D8" si="2">VALUE(LEFT(A4,2))</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Văn thư</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nam</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Hành chính</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nam</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Văn thư</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nữ</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Đào tạo</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nữ</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -636,10 +734,25 @@
       <c r="E11" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -653,85 +766,142 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+      <c r="I12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="5">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="5">
+        <v>12</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f>COUNTIF($B$3:$B$8,B13)</f>
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:D14" si="3">COUNTIF($B$3:$B$8,C13)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="5">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="5">
+        <v>15</v>
+      </c>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
+      <c r="A23" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -759,57 +929,57 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
